--- a/SumNote/SumNote/Properties/repos/Entries.xlsx
+++ b/SumNote/SumNote/Properties/repos/Entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\c#\SumNote-App\SumNote\SumNote\Properties\repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974202CA-7C77-402B-9B4C-AB451021FF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B2C9A-9F7F-47A5-8714-BE219273A9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3960" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NoteID</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>testtesttesttest</t>
+  </si>
+  <si>
+    <t>eytr</t>
+  </si>
+  <si>
+    <t>tyruytr</t>
   </si>
 </sst>
 </file>
@@ -56,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +109,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -112,7 +118,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
